--- a/biology/Microbiologie/Thermomicrobia/Thermomicrobia.xlsx
+++ b/biology/Microbiologie/Thermomicrobia/Thermomicrobia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thermomicrobia sont une classe de bacilles Gram négatifs de l'embranchement des Thermomicrobiota. Son nom provient de Thermomicrobiales qui est l'ordre type de cette classe. Ce sont des bactéries extrémophiles thermophiles semblable aux Chloroflexia par le phénotype (bactéries vertes non sulfureuses), mais distinctes sur le plan phylogénétique.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de la classe Thermomicrobia est la suivante :  Ther.mo.mi.cro’bi.a N.L. neut. n. Thermomicrobium, Genre type de l'ordre type de la classe; N.L. neut. pl. n. Thermomicrobia[2].
-Nomenclature
-Cette classe est proposée en 2001 par G.M. Garrity et J.G . Holt dans la deuxième édition du Bergey's Manual of Systematic Bacteriology[1]. Elle est validée l'année suivante par une publication dans l'IJSEM[3]. 
-En 2004 P. Hugenholtz et E. Stackebrandt proposent de rattacher cette classe, non pas à l'embranchement alors nommé lui aussi « Thermomicrobia », mais à un sous-embranchement de l'embranchement des « Chloroflexi » (depuis renommé en Chloroflexota)[4]. Par la suite, en 2021, ce taxon a été élevé au rang d'embranchement à part entière sous le nom de Thermomicrobiota[5].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de la classe Thermomicrobia est la suivante :  Ther.mo.mi.cro’bi.a N.L. neut. n. Thermomicrobium, Genre type de l'ordre type de la classe; N.L. neut. pl. n. Thermomicrobia.
 </t>
         </is>
       </c>
@@ -543,12 +557,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classe est proposée en 2001 par G.M. Garrity et J.G . Holt dans la deuxième édition du Bergey's Manual of Systematic Bacteriology. Elle est validée l'année suivante par une publication dans l'IJSEM. 
+En 2004 P. Hugenholtz et E. Stackebrandt proposent de rattacher cette classe, non pas à l'embranchement alors nommé lui aussi « Thermomicrobia », mais à un sous-embranchement de l'embranchement des « Chloroflexi » (depuis renommé en Chloroflexota). Par la suite, en 2021, ce taxon a été élevé au rang d'embranchement à part entière sous le nom de Thermomicrobiota.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thermomicrobia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thermomicrobia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (2 décembre 2022)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (2 décembre 2022) :
 Sphaerobacterales Stackebrandt et al. 1997
 Thermomicrobiales Garrity &amp; Holt 2002 – ordre type</t>
         </is>
